--- a/biology/Médecine/Hôpital_d'Espoo/Hôpital_d'Espoo.xlsx
+++ b/biology/Médecine/Hôpital_d'Espoo/Hôpital_d'Espoo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Espoo</t>
+          <t>Hôpital_d'Espoo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital d'Espoo (finnois : Espoon sairaala) est un hôpital municipal situé dans le quartier de Karvasmäki à Espoo en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital d'Espoo (finnois : Espoon sairaala) est un hôpital municipal situé dans le quartier de Karvasmäki à Espoo en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_d%27Espoo</t>
+          <t>Hôpital_d'Espoo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,58 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'hôpital municipal
-L'hôpital d'Espoo est spécialisé dans les soins et la rééducation des personnes âgées d'Espoo, Kauniainen et de Kirkkonummi[2].
+          <t>L'hôpital municipal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'hôpital d'Espoo est spécialisé dans les soins et la rééducation des personnes âgées d'Espoo, Kauniainen et de Kirkkonummi.
 L'hôpital d'Espoo a 270 chambres individuelles, il emploie plus de 400 soignants.
-Les départements de l'hôpital sont[3]:
+Les départements de l'hôpital sont:
 Service d'urgences
 soins des plaies et psychogériatrie
 Rééducation orthopédique
 Réadaptation neurologique
 Infections
-Soins palliatifs en phase terminale
-La maternité du HUS
-Quand l'hôpital de l'école des sages femmes ferme en octobre 2018[4],[5],[6], les accouchements opérés par l'école sont d'abord transférés à l'hôpital de Jorvi et à la clinique de gynécologie. 
-Le District hospitalier d'Helsinki et de l'Uusimaa loue alors des espaces dans l'hôpital d'Espoo et, après travaux de réhabilitation, les services de maternité de l'hôpital de Jorvi y sont transférés depuis le 27 février 2018, on y réalise les accouchements et les soins aux nouveau-nés[7],[8]
+Soins palliatifs en phase terminale</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_d'Espoo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_d%27Espoo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La maternité du HUS</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand l'hôpital de l'école des sages femmes ferme en octobre 2018 les accouchements opérés par l'école sont d'abord transférés à l'hôpital de Jorvi et à la clinique de gynécologie. 
+Le District hospitalier d'Helsinki et de l'Uusimaa loue alors des espaces dans l'hôpital d'Espoo et, après travaux de réhabilitation, les services de maternité de l'hôpital de Jorvi y sont transférés depuis le 27 février 2018, on y réalise les accouchements et les soins aux nouveau-nés,
 </t>
         </is>
       </c>
